--- a/Configs/Datas/dialogueData.xlsx
+++ b/Configs/Datas/dialogueData.xlsx
@@ -177,9 +177,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -211,34 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -246,15 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -269,9 +249,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,22 +324,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,7 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,37 +353,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -375,25 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,157 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,17 +639,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,7 +669,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,22 +693,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,17 +736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1727,7 +1727,9 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="5">
+        <v>7009</v>
+      </c>
       <c r="S14" s="5">
         <v>8002</v>
       </c>
@@ -1762,7 +1764,9 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="5">
+        <v>7010</v>
+      </c>
       <c r="S15" s="5">
         <v>8001</v>
       </c>
@@ -1797,7 +1801,9 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="5">
+        <v>7011</v>
+      </c>
       <c r="S16" s="5">
         <v>8002</v>
       </c>
@@ -1832,7 +1838,9 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="5">
+        <v>7012</v>
+      </c>
       <c r="S17" s="5">
         <v>8002</v>
       </c>
@@ -1867,7 +1875,9 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="5">
+        <v>7013</v>
+      </c>
       <c r="S18" s="5">
         <v>8001</v>
       </c>
@@ -1902,7 +1912,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="5">
+        <v>7014</v>
+      </c>
       <c r="S19" s="5">
         <v>8001</v>
       </c>
@@ -2105,8 +2117,12 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="R26" s="5">
+        <v>7017</v>
+      </c>
+      <c r="S26" s="5">
+        <v>8005</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -2138,8 +2154,12 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
+      <c r="R27" s="5">
+        <v>7018</v>
+      </c>
+      <c r="S27" s="5">
+        <v>8005</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -2171,8 +2191,12 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="R28" s="5">
+        <v>7019</v>
+      </c>
+      <c r="S28" s="5">
+        <v>8001</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -2205,7 +2229,9 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="5">
+        <v>8001</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -2291,10 +2317,7 @@
       <c r="S32" s="5">
         <v>8003</v>
       </c>
-      <c r="T32" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C32,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T32" s="5"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -2329,10 +2352,7 @@
       <c r="S33" s="5">
         <v>8003</v>
       </c>
-      <c r="T33" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C33,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T33" s="5"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -2367,10 +2387,7 @@
       <c r="S34" s="5">
         <v>8001</v>
       </c>
-      <c r="T34" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C34,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T34" s="5"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -2455,10 +2472,7 @@
       <c r="S37" s="5">
         <v>8001</v>
       </c>
-      <c r="T37" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C37,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T37" s="5"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -2493,10 +2507,7 @@
       <c r="S38" s="5">
         <v>8004</v>
       </c>
-      <c r="T38" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C38,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T38" s="5"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -2531,10 +2542,7 @@
       <c r="S39" s="5">
         <v>8004</v>
       </c>
-      <c r="T39" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C39,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T39" s="5"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -2569,10 +2577,7 @@
       <c r="S40" s="5">
         <v>8004</v>
       </c>
-      <c r="T40" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C40,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T40" s="5"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -2607,10 +2612,7 @@
       <c r="S41" s="5">
         <v>8004</v>
       </c>
-      <c r="T41" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C41,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T41" s="5"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
@@ -2645,10 +2647,7 @@
       <c r="S42" s="5">
         <v>8001</v>
       </c>
-      <c r="T42" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C42,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T42" s="5"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -2683,10 +2682,7 @@
       <c r="S43" s="5">
         <v>8004</v>
       </c>
-      <c r="T43" s="5" t="e">
-        <f>INDEX($U$3:$U$6,MATCH(C43,$V$3:$V$6,0))</f>
-        <v>#N/A</v>
-      </c>
+      <c r="T43" s="5"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>

--- a/Configs/Datas/dialogueData.xlsx
+++ b/Configs/Datas/dialogueData.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +64,7 @@
     <t>艾莉亚</t>
   </si>
   <si>
-    <t>“这里……是哪儿？我为什么会在这里？”</t>
+    <t>这里……是哪儿？我为什么会在这里？</t>
   </si>
   <si>
     <t>游戏(第一关)开局</t>
@@ -63,85 +76,85 @@
     <t>播放上一条剧情后，玩家点击任意位置后播放该条</t>
   </si>
   <si>
-    <t>“这些百合……好美，但……我怎么感觉有些不对劲？这片森林似乎被一种无形的阴霾所笼罩。”</t>
+    <t>这些百合……好美，但……我怎么感觉有些不对劲？这片森林似乎被一种无形的阴霾所笼罩。</t>
   </si>
   <si>
     <t>（感受到森林深处中弥漫的黑暗力量）</t>
   </si>
   <si>
-    <t>“这股情绪……不对劲，我必须去调查一下。”</t>
-  </si>
-  <si>
-    <t>“我看看上面写了什么……欢迎来到幻林，这里充满了各种奇异的生物和植物，它们的存在与森林中流动的情绪能量息息相关。”</t>
+    <t>这股情绪……不对劲，我必须去调查一下。</t>
+  </si>
+  <si>
+    <t>我看看上面写了什么……欢迎来到幻林，这里充满了各种奇异的生物和植物，它们的存在与森林中流动的情绪能量息息相关。</t>
   </si>
   <si>
     <t>玩家与出生地(场景1)木牌交互后弹出</t>
   </si>
   <si>
-    <t>“这里的生物能够感知并影响他人的情绪，森林本身则是一个巨大的情绪调节器，维护着这里的和谐与平衡。”</t>
+    <t>这里的生物能够感知并影响他人的情绪，森林本身则是一个巨大的情绪调节器，维护着这里的和谐与平衡。</t>
   </si>
   <si>
     <t>爱心石碑</t>
   </si>
   <si>
-    <t>“欢迎你，旅者。你心中的爱，将是驱散这片森林黑暗的关键。”</t>
+    <t>欢迎你，旅者。你心中的爱，将是驱散这片森林黑暗的关键。</t>
   </si>
   <si>
     <t>玩家与场景2的石碑进行交互后弹出</t>
   </si>
   <si>
-    <t>“我……我该怎么做？”</t>
-  </si>
-  <si>
-    <t>“感受你的内心，让爱成为你的指引。”</t>
-  </si>
-  <si>
-    <t>“有时候石头会成为你的拦路虎，但也可以是你的垫脚石。”</t>
-  </si>
-  <si>
-    <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——花蕊爆弹）</t>
-  </si>
-  <si>
-    <t>“这是……新的力量！”</t>
-  </si>
-  <si>
-    <t>“我明白了，我要用这份爱，去驱散这片森林的黑暗。”</t>
-  </si>
-  <si>
-    <t>“天哪……这棵火焰大树，它曾经也是森林的一部分，现在却燃烧着如此愤怒的火焰。这里究竟发生了什么？”</t>
+    <t>我……我该怎么做？</t>
+  </si>
+  <si>
+    <t>感受你的内心，让爱成为你的指引。</t>
+  </si>
+  <si>
+    <t>有时候石头会成为你的拦路虎，但也可以是你的垫脚石。</t>
+  </si>
+  <si>
+    <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——&lt;color=#D43D3D&gt;花蕊爆弹&lt;/color&gt;）</t>
+  </si>
+  <si>
+    <t>这是……新的力量！</t>
+  </si>
+  <si>
+    <t>我明白了，我要用这份爱，去驱散这片森林的黑暗。</t>
+  </si>
+  <si>
+    <t>天哪……这棵火焰大树，它曾经也是森林的一部分，现在却燃烧着如此愤怒的火焰。这里究竟发生了什么？</t>
   </si>
   <si>
     <t>玩家与场景3火焰大树交互后弹出</t>
   </si>
   <si>
-    <t>“我很赏识你的勇气与智慧。”</t>
+    <t>我很赏识你的勇气与智慧。</t>
   </si>
   <si>
     <t>玩家与场景4的石碑进行交互后弹出</t>
   </si>
   <si>
-    <t>“记住，以退为进，也不失为一种策略。它能帮助你更好地面对未来的挑战。”</t>
-  </si>
-  <si>
-    <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——孢子飞絮）</t>
-  </si>
-  <si>
-    <t>“我会继续努力的，直到这片森林重新焕发生机。”</t>
+    <t>记住，以退为进，也不失为一种策略。它能帮助你更好地面对未来的挑战。</t>
+  </si>
+  <si>
+    <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——&lt;color=#D43D3D&gt;孢子飞絮&lt;/color&gt;）</t>
+  </si>
+  <si>
+    <t>我会继续努力的，直到这片森林重新焕发生机。</t>
   </si>
   <si>
     <t>愤怒之花</t>
   </si>
   <si>
-    <t>“你为何闯入我的领地！你的存在只会让我感到更加愤怒！”</t>
+    <t>你为何闯入我的领地！你的存在只会让我感到更加愤怒！</t>
   </si>
   <si>
     <t>玩家首次进入场景8</t>
   </si>
   <si>
-    <t>“我的怒火将焚尽一切！”</t>
-  </si>
-  <si>
-    <t>“你的怒火，只是被黑暗情绪所束缚。真正的你，应该是理智而美丽的。”</t>
+    <t>我的怒火将焚尽一切！</t>
+  </si>
+  <si>
+    <t>你的怒火，只是被黑暗情绪所束缚。真正的你，应该是理智而美丽的。</t>
   </si>
   <si>
     <t>（感化成功……愤怒之花变为理智之花）</t>
@@ -153,33 +166,33 @@
     <t>理智之花</t>
   </si>
   <si>
-    <t>“谢谢你，艾莉亚。是你让我找回了自己。”</t>
-  </si>
-  <si>
-    <t>“我发现自己曾是情绪的奴隶，我应该支配情绪，而不是由情绪支配我。”</t>
-  </si>
-  <si>
-    <t>“这片森林里还有很多生物和我一样失控。”</t>
-  </si>
-  <si>
-    <t>“我想加入你的队伍，一起去帮助他们，我们一起驱散这片森林的黑暗。”</t>
-  </si>
-  <si>
-    <t>“看到你变得如此理智真是太好啦。让我们携手一起前行吧。”</t>
-  </si>
-  <si>
-    <t>“嗯嗯，让我先带你飞跃这里的熔浆悬崖。”</t>
+    <t>谢谢你，艾莉亚。是你让我找回了自己。</t>
+  </si>
+  <si>
+    <t>我发现自己曾是情绪的奴隶，我应该支配情绪，而不是由情绪支配我。</t>
+  </si>
+  <si>
+    <t>这片森林里还有很多生物和我一样失控。</t>
+  </si>
+  <si>
+    <t>我想加入你的队伍，一起去帮助他们，我们一起驱散这片森林的黑暗。</t>
+  </si>
+  <si>
+    <t>看到你变得如此理智真是太好啦。让我们携手一起前行吧。</t>
+  </si>
+  <si>
+    <t>嗯嗯，让我先带你飞跃这里的熔浆悬崖。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,84 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,16 +240,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,7 +263,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -341,7 +280,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +352,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -375,37 +388,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,31 +520,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,97 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,41 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -698,6 +676,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -709,6 +696,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,153 +738,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -935,52 +948,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1282,11 +1295,11 @@
   <sheetPr/>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -2884,7 +2897,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2901,7 +2914,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/dialogueData.xlsx
+++ b/Configs/Datas/dialogueData.xlsx
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1624,8 +1624,12 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="5">
+        <v>7007</v>
+      </c>
+      <c r="S10" s="5">
+        <v>8001</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -1658,7 +1662,9 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5">
+        <v>8001</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -2326,7 +2332,9 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="5">
+        <v>7021</v>
+      </c>
       <c r="S32" s="5">
         <v>8003</v>
       </c>
@@ -2361,7 +2369,9 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="5">
+        <v>7022</v>
+      </c>
       <c r="S33" s="5">
         <v>8003</v>
       </c>
@@ -2481,7 +2491,9 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="5">
+        <v>7024</v>
+      </c>
       <c r="S37" s="5">
         <v>8001</v>
       </c>
@@ -2516,7 +2528,9 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="R38" s="5">
+        <v>7025</v>
+      </c>
       <c r="S38" s="5">
         <v>8004</v>
       </c>
@@ -2551,7 +2565,9 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="R39" s="5">
+        <v>7026</v>
+      </c>
       <c r="S39" s="5">
         <v>8004</v>
       </c>
@@ -2586,7 +2602,9 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="R40" s="5">
+        <v>7027</v>
+      </c>
       <c r="S40" s="5">
         <v>8004</v>
       </c>
@@ -2621,7 +2639,9 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
+      <c r="R41" s="5">
+        <v>7028</v>
+      </c>
       <c r="S41" s="5">
         <v>8004</v>
       </c>
@@ -2656,7 +2676,9 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
+      <c r="R42" s="5">
+        <v>7029</v>
+      </c>
       <c r="S42" s="5">
         <v>8001</v>
       </c>

--- a/Configs/Datas/dialogueData.xlsx
+++ b/Configs/Datas/dialogueData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>##type</t>
   </si>
@@ -109,12 +109,12 @@
     <t>感受你的内心，让爱成为你的指引。</t>
   </si>
   <si>
-    <t>有时候石头会成为你的拦路虎，但也可以是你的垫脚石。</t>
-  </si>
-  <si>
     <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——&lt;color=#D43D3D&gt;花蕊爆弹&lt;/color&gt;）</t>
   </si>
   <si>
+    <t>旅者，这项技能威力巨大，能够用来击碎&lt;color=#D43D3D&gt;旅途中的石堆&lt;/color&gt;，也可以在战斗中击杀小范围敌人。</t>
+  </si>
+  <si>
     <t>这是……新的力量！</t>
   </si>
   <si>
@@ -133,7 +133,7 @@
     <t>玩家与场景4的石碑进行交互后弹出</t>
   </si>
   <si>
-    <t>记住，以退为进，也不失为一种策略。它能帮助你更好地面对未来的挑战。</t>
+    <t>记住，以退为进，也不失为一种策略。当怪物冲向你时，使用孢子飞絮攻击它，会将它击退。</t>
   </si>
   <si>
     <t>（爱心石碑散发出柔和的光芒，艾莉亚学会新技能——&lt;color=#D43D3D&gt;孢子飞絮&lt;/color&gt;）</t>
@@ -181,7 +181,136 @@
     <t>看到你变得如此理智真是太好啦。让我们携手一起前行吧。</t>
   </si>
   <si>
-    <t>嗯嗯，让我先带你飞跃这里的熔浆悬崖。</t>
+    <t>嗯嗯，让我先带你飞跃这里的熔浆悬崖。（使用技能&lt;color=#D43D3D&gt;冲刺&lt;/color&gt;）</t>
+  </si>
+  <si>
+    <t>哇，这里的&lt;color=#D43D3D&gt;陷阱&lt;/color&gt;好多啊，一不小心就会踩上。</t>
+  </si>
+  <si>
+    <t>玩家首次进入场景2-2</t>
+  </si>
+  <si>
+    <t>我的技能可以直接冲过去。</t>
+  </si>
+  <si>
+    <t>但是还是要谨慎一点，不能太急躁。</t>
+  </si>
+  <si>
+    <t>嗯，这个神像好像在传递一种平静和宁静的情感，好像有话要说（&lt;color=#D43D3D&gt;交互神像&lt;/color&gt;）。</t>
+  </si>
+  <si>
+    <t>旅者，要重视伙伴的力量</t>
+  </si>
+  <si>
+    <t>玩家与场景2-2的石碑进行交互后弹出</t>
+  </si>
+  <si>
+    <t>每一个伙伴代表不同的技能和能力</t>
+  </si>
+  <si>
+    <t>你们之间&lt;color=#D43D3D&gt;相互配合&lt;/color&gt;就一定能跨过艰难险阻</t>
+  </si>
+  <si>
+    <t>如果遇到了不可治疗的伤势会回到我这里&lt;color=#D43D3D&gt;复活&lt;/color&gt;哦。</t>
+  </si>
+  <si>
+    <t>哇，这个软泥怪好像不太友好啊。看来我们得小心一点。</t>
+  </si>
+  <si>
+    <t>玩家首次进入场景2-4</t>
+  </si>
+  <si>
+    <t>咦，看来这个软泥怪好像在&lt;color=#D43D3D&gt;召唤&lt;/color&gt;其他小怪。我们得尽快解决它，不然会越来越麻烦。</t>
+  </si>
+  <si>
+    <t>用我的&lt;color=#D43D3D&gt;冲刺&lt;/color&gt;来接近和击杀小软泥怪吧，我们一起加油！</t>
+  </si>
+  <si>
+    <t>这里的怪物好多啊。</t>
+  </si>
+  <si>
+    <t>玩家首次进入场景2-5</t>
+  </si>
+  <si>
+    <t>这个水灵好像在&lt;color=#D43D3D&gt;蓄力攻击&lt;/color&gt;，我们得想办法阻止它</t>
+  </si>
+  <si>
+    <t>用我的&lt;color=#D43D3D&gt;弹反&lt;/color&gt;弹反吧，可以弹回它们的攻击，你趁机出击！</t>
+  </si>
+  <si>
+    <t>只要我们有足够的智慧和技能，就可以轻松应对</t>
+  </si>
+  <si>
+    <t>这个神像好像有些不一样。看来我得去看看（&lt;color=#D43D3D&gt;交互神像&lt;/color&gt;）。</t>
+  </si>
+  <si>
+    <t>玩家首次进入场景2-6</t>
+  </si>
+  <si>
+    <t>这个神像平静和宁静的情感怎么好像带了些许悲伤。</t>
+  </si>
+  <si>
+    <t>玩家与场景2-6的石碑进行交互后弹出</t>
+  </si>
+  <si>
+    <t>这里的场景也发生了些变化，看来前方一定要什么东西。</t>
+  </si>
+  <si>
+    <t>我感受到了，前方有很强的悲伤情绪，我们一定要去前方看看</t>
+  </si>
+  <si>
+    <t>看来我们接近悲伤的核心了，应该就在前方的不远处。</t>
+  </si>
+  <si>
+    <t>玩家首次进入场景2-8</t>
+  </si>
+  <si>
+    <t>我们去看看前方的石像吧，或许会有线索。（&lt;color=#D43D3D&gt;交互神像&lt;/color&gt;）</t>
+  </si>
+  <si>
+    <t>欢迎你，旅者。</t>
+  </si>
+  <si>
+    <t>玩家与场景2-8的石碑进行交互后弹出</t>
+  </si>
+  <si>
+    <t>前方发生了什么，悲伤的情绪甚至影响了幻林。</t>
+  </si>
+  <si>
+    <t>春雨绵绵下，可是悲伤泪？曾是灿烂樱之花，今却飘落地。谁人不怜惜。</t>
+  </si>
+  <si>
+    <t>你们自己去看看就知道了，它就在前面。</t>
+  </si>
+  <si>
+    <t>如果失败了就回到我这里&lt;color=#D43D3D&gt;复活&lt;/color&gt;重来。加油啊！旅者。</t>
+  </si>
+  <si>
+    <t>嗯，这朵花好像在传递一种悲伤和哀伤的情感。我该怎么做才能与它沟通呢？</t>
+  </si>
+  <si>
+    <t>玩家击败BOSS悲伤之花后</t>
+  </si>
+  <si>
+    <t>原来如此，这朵花需要一种爱和温暖的情感。我得想办法让它感受到我的爱和温暖。</t>
+  </si>
+  <si>
+    <t>（艾莉亚使用情感能量，让悲伤之花感受到了她的爱和温暖）</t>
+  </si>
+  <si>
+    <t>悲伤之花</t>
+  </si>
+  <si>
+    <t>谢谢你，我的朋友。你的爱和温暖，让我重新找到了自己的力量和勇气。</t>
+  </si>
+  <si>
+    <t>不用谢，这是我的责任。我希望你能够重新开放你的花瓣，绽放你的美丽。</t>
+  </si>
+  <si>
+    <t>我会记住你的爱和温暖，用它来照亮我的未来。</t>
+  </si>
+  <si>
+    <t>（微笑着）好的，我相信你会有一个美好的未来的。现在，我们继续前进吧。</t>
   </si>
 </sst>
 </file>
@@ -194,7 +323,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,11 +345,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -769,137 +918,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,17 +1082,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1293,10 +1454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1344,23 +1505,23 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
@@ -1381,7 +1542,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1550,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <v>7002</v>
       </c>
       <c r="S3" s="5">
@@ -1418,7 +1579,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +1587,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>7003</v>
       </c>
       <c r="S4" s="5">
@@ -1455,7 +1616,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1624,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="R5" s="5">
         <v>7004</v>
       </c>
       <c r="S5" s="5">
@@ -1492,7 +1653,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1661,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>7005</v>
       </c>
       <c r="S6" s="5">
@@ -1529,7 +1690,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1698,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5">
@@ -1560,13 +1721,13 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="7"/>
@@ -1585,13 +1746,13 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="7"/>
@@ -1616,20 +1777,16 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="5">
-        <v>7007</v>
-      </c>
-      <c r="S10" s="5">
-        <v>8001</v>
-      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -1653,7 +1810,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1661,10 +1818,8 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="5">
-        <v>8001</v>
-      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1682,13 +1837,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="12"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1707,13 +1862,13 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1738,7 +1893,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="12"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1930,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1967,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1837,7 +1992,7 @@
         <v>7011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
@@ -1849,7 +2004,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +2016,7 @@
         <v>7012</v>
       </c>
       <c r="S17" s="5">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="7"/>
@@ -1874,9 +2029,9 @@
         <v>7012</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="7"/>
@@ -1886,7 +2041,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +2053,7 @@
         <v>7013</v>
       </c>
       <c r="S18" s="5">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="7"/>
@@ -1923,7 +2078,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +2115,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="7" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +2123,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="5">
         <v>8001</v>
       </c>
@@ -1989,13 +2144,13 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2014,13 +2169,13 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -2045,15 +2200,15 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2072,13 +2227,13 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -2097,13 +2252,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -2128,7 +2283,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2162,10 +2317,10 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="7" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2357,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="7" t="s">
         <v>14</v>
       </c>
@@ -2239,7 +2394,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="7" t="s">
         <v>14</v>
       </c>
@@ -2247,7 +2402,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="5">
         <v>8001</v>
       </c>
@@ -2268,13 +2423,13 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -2293,13 +2448,13 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="12"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -2324,7 +2479,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="12"/>
+      <c r="L32" s="13"/>
       <c r="M32" s="7" t="s">
         <v>39</v>
       </c>
@@ -2361,7 +2516,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="7" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2553,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="7" t="s">
         <v>14</v>
       </c>
@@ -2406,7 +2561,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="5"/>
       <c r="S34" s="5">
         <v>8001</v>
       </c>
@@ -2427,13 +2582,13 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="13"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="7"/>
@@ -2452,13 +2607,13 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -2483,7 +2638,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="13"/>
       <c r="M37" s="7" t="s">
         <v>43</v>
       </c>
@@ -2520,7 +2675,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="7" t="s">
         <v>14</v>
       </c>
@@ -2557,7 +2712,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="7" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2749,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="7" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2786,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="12"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="7" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2823,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="12"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2705,7 +2860,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="12"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="7" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +2868,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="5">
         <v>8004</v>
       </c>
@@ -2725,7 +2880,7 @@
     </row>
     <row r="44" spans="2:24">
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -2734,13 +2889,13 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="13"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -2750,7 +2905,7 @@
     </row>
     <row r="45" spans="2:24">
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -2759,13 +2914,13 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="12"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -2773,10 +2928,16 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
     </row>
-    <row r="46" spans="2:24">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+    <row r="46" ht="14.25" spans="2:24">
+      <c r="B46" s="5">
+        <v>7030</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2784,14 +2945,20 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="7"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="R46" s="5">
+        <v>7031</v>
+      </c>
+      <c r="S46" s="5">
+        <v>8001</v>
+      </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -2799,9 +2966,15 @@
       <c r="X46" s="7"/>
     </row>
     <row r="47" spans="2:24">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="5">
+        <v>7031</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2809,24 +2982,36 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="7"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="R47" s="5">
+        <v>7032</v>
+      </c>
+      <c r="S47" s="5">
+        <v>8004</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
-    <row r="48" spans="2:24">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+    <row r="48" ht="14.25" spans="2:24">
+      <c r="B48" s="5">
+        <v>7032</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2834,24 +3019,36 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="7"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="R48" s="5">
+        <v>7033</v>
+      </c>
+      <c r="S48" s="5">
+        <v>8001</v>
+      </c>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" spans="2:24">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+    <row r="49" ht="14.25" spans="2:24">
+      <c r="B49" s="5">
+        <v>7033</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2859,14 +3056,20 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="7"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="R49" s="5">
+        <v>7034</v>
+      </c>
+      <c r="S49" s="5">
+        <v>8001</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -2874,9 +3077,15 @@
       <c r="X49" s="7"/>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="5">
+        <v>7034</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2884,23 +3093,708 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
+      <c r="R50" s="5">
+        <v>7035</v>
+      </c>
+      <c r="S50" s="5">
+        <v>8005</v>
+      </c>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
     </row>
+    <row r="51" spans="2:19">
+      <c r="B51" s="5">
+        <v>7035</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="5">
+        <v>7036</v>
+      </c>
+      <c r="S51" s="5">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" s="5">
+        <v>7036</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="5">
+        <v>7037</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" ht="14.25" spans="2:19">
+      <c r="B57" s="5">
+        <v>7038</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R57" s="5">
+        <v>7039</v>
+      </c>
+      <c r="S57" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="2:19">
+      <c r="B58" s="5">
+        <v>7039</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R58" s="5">
+        <v>7040</v>
+      </c>
+      <c r="S58" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="5">
+        <v>7040</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R59" s="17"/>
+      <c r="S59" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="M60" s="7"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="M61" s="7"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" ht="14.25" spans="2:19">
+      <c r="B62" s="5">
+        <v>7041</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R62" s="5">
+        <v>7042</v>
+      </c>
+      <c r="S62" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="2:19">
+      <c r="B63" s="5">
+        <v>7042</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R63" s="5">
+        <v>7043</v>
+      </c>
+      <c r="S63" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
+      <c r="B64" s="5">
+        <v>7043</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" s="5">
+        <v>7044</v>
+      </c>
+      <c r="S64" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="2:19">
+      <c r="B65" s="5">
+        <v>7044</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" s="17"/>
+      <c r="S65" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="M66" s="7"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="M67" s="7"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" ht="14.25" spans="2:19">
+      <c r="B68" s="5">
+        <v>7045</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R68" s="5">
+        <v>7046</v>
+      </c>
+      <c r="S68" s="17">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="2:19">
+      <c r="B69" s="5">
+        <v>7046</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R69" s="5">
+        <v>7047</v>
+      </c>
+      <c r="S69" s="17">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" s="5">
+        <v>7047</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R70" s="5">
+        <v>7048</v>
+      </c>
+      <c r="S70" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" s="5">
+        <v>7048</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R71" s="17"/>
+      <c r="S71" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" s="5"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+    </row>
+    <row r="73" spans="18:19">
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" s="17">
+        <v>7049</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R74" s="17">
+        <v>7050</v>
+      </c>
+      <c r="S74" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" s="17">
+        <v>7050</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R75" s="17">
+        <v>7051</v>
+      </c>
+      <c r="S75" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" s="17">
+        <v>7051</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R76" s="17">
+        <v>7052</v>
+      </c>
+      <c r="S76" s="5">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" s="17">
+        <v>7052</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R77" s="17">
+        <v>7053</v>
+      </c>
+      <c r="S77" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" s="17">
+        <v>7053</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" s="17">
+        <v>7054</v>
+      </c>
+      <c r="S78" s="5">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" s="17">
+        <v>7054</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R79" s="17"/>
+      <c r="S79" s="5">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" s="17">
+        <v>7055</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="M80" s="7"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="2:19">
+      <c r="B81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+    </row>
+    <row r="82" spans="2:19">
+      <c r="B82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+    </row>
+    <row r="83" ht="14.25" spans="2:19">
+      <c r="B83" s="17">
+        <v>7056</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R83" s="17">
+        <v>7057</v>
+      </c>
+      <c r="S83" s="5">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="2:19">
+      <c r="B84" s="17">
+        <v>7057</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R84" s="17">
+        <v>7058</v>
+      </c>
+      <c r="S84" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="2:19">
+      <c r="B85" s="17">
+        <v>7058</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="17">
+        <v>7059</v>
+      </c>
+      <c r="S85" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="2:19">
+      <c r="B86" s="17">
+        <v>7059</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86" s="17">
+        <v>7060</v>
+      </c>
+      <c r="S86" s="17">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="2:19">
+      <c r="B87" s="17">
+        <v>7060</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R87" s="17">
+        <v>7061</v>
+      </c>
+      <c r="S87" s="5">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="2:19">
+      <c r="B88" s="17">
+        <v>7061</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R88" s="17">
+        <v>7062</v>
+      </c>
+      <c r="S88" s="17">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="2:19">
+      <c r="B89" s="17">
+        <v>7062</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" s="17"/>
+      <c r="S89" s="5">
+        <v>8001</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C18 C46 C47 C48 C53 C54 C57 C58 C59 C60 C63 C64 C67 C68 C69 C70 C71 C74 C75 C76 C77 C78 C79 C80 C83 C84 C85 C87 C89 C3:C16 C19:C43 C44:C45 C49:C52 C55:C56 C61:C62 C65:C66">
       <formula1>"艾莉亚,爱心石碑,愤怒之花,理智之花"</formula1>
     </dataValidation>
   </dataValidations>
